--- a/OnSolveAutomationProject/OnSolveAutomationProject/TestData/FormSite.xlsx
+++ b/OnSolveAutomationProject/OnSolveAutomationProject/TestData/FormSite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OutSideWork\OnSolveAutomationProject\OnSolveAutomationProject\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OutSideWork\OnSolveAutomationTestProject\OnSolveAutomationProject\OnSolveAutomationProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>FirstName</t>
   </si>
@@ -57,9 +54,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>secret</t>
   </si>
   <si>
     <t>Hien</t>
@@ -471,28 +465,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,120 +516,108 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>5045</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2">
+      <c r="J2" s="4">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
         <v>5045</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4">
         <v>43313</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
         <v>5045</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="4">
-        <v>43313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4">
-        <v>5045</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4">
         <v>43313</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/OnSolveAutomationProject/OnSolveAutomationProject/TestData/FormSite.xlsx
+++ b/OnSolveAutomationProject/OnSolveAutomationProject/TestData/FormSite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>FirstName</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>edc</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
   </si>
 </sst>
 </file>
@@ -183,7 +186,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -468,7 +471,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +485,7 @@
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -545,8 +548,8 @@
       <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4">
-        <v>43313</v>
+      <c r="J2" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -577,8 +580,8 @@
       <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="4">
-        <v>43313</v>
+      <c r="J3" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -609,8 +612,8 @@
       <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4">
-        <v>43313</v>
+      <c r="J4" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
